--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 개혁.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 개혁.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,14 +476,164 @@
           <t>제1차 갑오개혁: 1894년</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>20230215</t>
-        </is>
+      <c r="D2" t="n">
+        <v>20230215</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>22시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>환곡미 폐지를 발표하였다</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>갑신정변의 개혁 정강 14조: 1884년</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>재정을 모두 호조에서 관할하도록 할 것</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>헌의 6조</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>갑신정변의 개혁 정강 14조: 1884년</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>지조법을 개혁한다</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>폐정 개혁 12개조</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>갑신정변의 개혁 정강 14조: 1884년</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>국내외의 공사 문서에는 개국 기원을 사용할 것</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>갑신정변의 개혁 정강 14조</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁: 1894년</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>환곡미 폐지를 발표하였다</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>갑신정변의 개혁 정강 14조: 1884년</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>호조로 재정을 일원화 할 것을 발표하였다</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>폐정 개혁 12개조</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>갑신정변의 개혁 정강 14조: 1884년</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20230216</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21시 04분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 개혁.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_한국사 개혁.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,14 +626,114 @@
           <t>갑신정변의 개혁 정강 14조: 1884년</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20230216</t>
-        </is>
+      <c r="D8" t="n">
+        <v>20230216</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>21시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>지조법을 개혁한다</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>갑신정변의 개혁 정강 14조: 1884년</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>과거제를 폐지한다</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>개혁 정강 14조</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁: 1894년</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>국내외의 공사 문서에는 개국 기원을 사용할 것</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>헌의 6조</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>제1차 갑오개혁: 1894년</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20230217</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>문벌폐지, 인민평등권 확립, 입헌군주제 등을 주장하였다</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>폐정 개혁 12개조</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>개혁 정강 14조: 갑신정변, 1884년</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20230217</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23시 20분</t>
         </is>
       </c>
     </row>
